--- a/Experimental Data/Ablation experiment/Grouping/grouping.xlsx
+++ b/Experimental Data/Ablation experiment/Grouping/grouping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1postgraduate\Project\大规模多目标优化\消融实验\分组有效性\200目标\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1postgraduate\Project\大规模多目标优化\LMTOD\Experimental Results\LMTOD\Experimental Data\Ablation experiment\Grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6108F700-5DF6-4405-BB29-EF111FA69C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBD0B53-EEF0-45B3-A9E5-CB0A6BAD1734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
   <si>
     <t>问题</t>
   </si>
@@ -47,10 +47,6 @@
 (2.0304e-04)-</t>
   </si>
   <si>
-    <t>1.6875e-01
-(5.9722e-06)-</t>
-  </si>
-  <si>
     <t>1.7031e-01
 (1.5888e-05)-</t>
   </si>
@@ -63,10 +59,6 @@
 (2.5538e-04)-</t>
   </si>
   <si>
-    <t>3.2748e-01
-(4.7760e-05)-</t>
-  </si>
-  <si>
     <t>3.3088e-01
 (1.1075e-04)-</t>
   </si>
@@ -79,10 +71,6 @@
 (9.2604e-04)-</t>
   </si>
   <si>
-    <t>3.8781e-01
-(2.2798e-04)-</t>
-  </si>
-  <si>
     <t>3.8556e-01
 (6.7498e-05)-</t>
   </si>
@@ -98,10 +86,6 @@
 (5.8163e-04)-</t>
   </si>
   <si>
-    <t>2.9141e-01
-(2.5788e-04)-</t>
-  </si>
-  <si>
     <t>2.2967e-01
 (2.0996e-04)-</t>
   </si>
@@ -114,10 +98,6 @@
 (6.8055e-04)-</t>
   </si>
   <si>
-    <t>6.2239e-01
-(5.2157e-04)-</t>
-  </si>
-  <si>
     <t>5.1875e-01
 (7.4391e-04)-</t>
   </si>
@@ -130,10 +110,6 @@
 (5.6636e-04)-</t>
   </si>
   <si>
-    <t>7.4677e-01
-(8.8761e-04)-</t>
-  </si>
-  <si>
     <t>6.4132e-01
 (5.3649e-04)-</t>
   </si>
@@ -149,10 +125,6 @@
 (7.6639e-03)-</t>
   </si>
   <si>
-    <t>4.9393e-01
-(9.9897e-04)-</t>
-  </si>
-  <si>
     <t>4.9096e-01
 (1.5586e-03)-</t>
   </si>
@@ -165,10 +137,6 @@
 (4.1948e-03)-</t>
   </si>
   <si>
-    <t>6.0242e-01
-(2.0688e-03)-</t>
-  </si>
-  <si>
     <t>6.1050e-01
 (1.2499e-03)-</t>
   </si>
@@ -181,10 +149,6 @@
 (1.6481e-03)-</t>
   </si>
   <si>
-    <t>5.9244e-01
-(2.0744e-03)-</t>
-  </si>
-  <si>
     <t>5.9013e-01
 (2.2714e-03)-</t>
   </si>
@@ -200,10 +164,6 @@
 (1.3870e-02)-</t>
   </si>
   <si>
-    <t>1.0661e+00
-(5.6270e-03)-</t>
-  </si>
-  <si>
     <t>1.0442e+00
 (2.9094e-03)-</t>
   </si>
@@ -216,10 +176,6 @@
 (9.4828e-03)-</t>
   </si>
   <si>
-    <t>1.2360e+00
-(1.3657e-02)-</t>
-  </si>
-  <si>
     <t>1.2319e+00
 (2.3587e-02)-</t>
   </si>
@@ -232,10 +188,6 @@
 (4.7130e-02)-</t>
   </si>
   <si>
-    <t>1.3927e+00
-(4.8921e-02)-</t>
-  </si>
-  <si>
     <t>1.6427e+00
 (2.0733e-02)-</t>
   </si>
@@ -251,10 +203,6 @@
 (1.7413e+01)-</t>
   </si>
   <si>
-    <t>4.2749e+00
-(6.8504e-01)-</t>
-  </si>
-  <si>
     <t>4.3092e+00
 (4.9863e-01)-</t>
   </si>
@@ -267,10 +215,6 @@
 (3.0154e+00)-</t>
   </si>
   <si>
-    <t>5.3654e+00
-(1.2761e-01)-</t>
-  </si>
-  <si>
     <t>5.4938e+00
 (5.3418e-03)-</t>
   </si>
@@ -283,10 +227,6 @@
 (4.9335e+00)-</t>
   </si>
   <si>
-    <t>9.2583e+00
-(2.9357e-01)-</t>
-  </si>
-  <si>
     <t>9.4449e+00
 (1.8673e-01)-</t>
   </si>
@@ -574,6 +514,75 @@
   <si>
     <t>LMTOD-MogDG-shift  
 (MogDG-shift)</t>
+  </si>
+  <si>
+    <t>1.1378e+00
+(8.3203e-06)-</t>
+  </si>
+  <si>
+    <t>1.5129e+00
+(1.5537e-01)-</t>
+  </si>
+  <si>
+    <t>2.5197e+00
+(5.2470e-02)-</t>
+  </si>
+  <si>
+    <t>2.9171e-01
+(2.7632e-04)-</t>
+  </si>
+  <si>
+    <t>6.1074e-01
+(4.1669e-04)-</t>
+  </si>
+  <si>
+    <t>7.4552e-01
+(6.1302e-04)-</t>
+  </si>
+  <si>
+    <t>1.8152e+00
+(1.5562e-03)-</t>
+  </si>
+  <si>
+    <t>1.0011e+00
+(5.3020e-03)-</t>
+  </si>
+  <si>
+    <t>1.2574e+00
+(3.8883e-02)-</t>
+  </si>
+  <si>
+    <t>1.1050e+00
+(4.3056e-03)-</t>
+  </si>
+  <si>
+    <t>2.1047e+00
+(6.1934e-02)-</t>
+  </si>
+  <si>
+    <t>1.8649e+00
+(1.4160e-02)-</t>
+  </si>
+  <si>
+    <t>9.3586e+00
+(4.6794e-02)-</t>
+  </si>
+  <si>
+    <t>7.3702e+00
+(1.6983e-01)-</t>
+  </si>
+  <si>
+    <t>9.5165e+00
+(6.1389e-02)-</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -749,42 +758,42 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,22 +1098,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="A1" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1113,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -1125,7 +1134,7 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="10">
@@ -1135,364 +1144,364 @@
         <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="17" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="5">
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="13">
         <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
-        <v>18</v>
+      <c r="A6" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5">
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="13">
         <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
-        <v>31</v>
+      <c r="A9" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="10">
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="13">
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>44</v>
+      <c r="A12" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="10">
         <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="5">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="13">
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>57</v>
+      <c r="A15" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="10">
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="5">
         <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="13">
         <v>10</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="33"/>
+      <c r="A18" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" s="15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="27"/>
+      <c r="A19" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="36"/>
       <c r="C19" s="6">
         <v>0</v>
       </c>
@@ -1511,28 +1520,28 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="16">
-        <v>5</v>
-      </c>
-      <c r="D20" s="16">
-        <v>3</v>
+      <c r="A20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
       </c>
-      <c r="F20" s="16">
-        <v>4</v>
+      <c r="F20" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
@@ -1555,15 +1564,15 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1571,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>1</v>
@@ -1580,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>3</v>
@@ -1591,214 +1600,214 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
-        <v>74</v>
+      <c r="A25" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="B25" s="10">
         <v>5</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="13">
         <v>10</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34" t="s">
-        <v>75</v>
+      <c r="A27" s="30" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="10">
         <v>5</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="13">
         <v>10</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
-        <v>123</v>
+      <c r="A29" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="10">
         <v>5</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="13">
         <v>10</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>84</v>
+      <c r="A31" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="B31" s="10">
         <v>5</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="13">
         <v>10</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="33"/>
+      <c r="A33" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="34"/>
       <c r="C33" s="15" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="27"/>
+      <c r="A34" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="36"/>
       <c r="C34" s="6">
         <v>0</v>
       </c>
@@ -1817,10 +1826,10 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="29"/>
+      <c r="A35" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="32"/>
       <c r="C35" s="16">
         <v>5</v>
       </c>
@@ -1852,42 +1861,42 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="A39" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="27"/>
+      <c r="A40" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="36"/>
       <c r="C40" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="31"/>
+      <c r="A41" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="38"/>
       <c r="C41" s="6">
         <v>0</v>
       </c>
@@ -1901,14 +1910,14 @@
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="31"/>
+      <c r="A42" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="38"/>
       <c r="C42" s="6">
         <v>5</v>
       </c>
@@ -1927,16 +1936,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A42:B42"/>
@@ -1949,6 +1948,16 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
